--- a/spliced/falling/2023-03-25_17-56-24/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-56-24/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.5379581451416018</v>
+        <v>-0.7163823843002323</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9855325698852542</v>
+        <v>1.020635187625885</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.2731702357530603</v>
+        <v>-1.5041623711586</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0678060427308082</v>
+        <v>-0.1356120854616165</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.026419922709465</v>
+        <v>-0.3391829133033752</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0497855171561241</v>
+        <v>0.0577267669141292</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.6476110458374021</v>
+        <v>-1.034550857543945</v>
       </c>
       <c r="D3" t="n">
-        <v>1.080279231071473</v>
+        <v>0.722710514068603</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.8854551434516924</v>
+        <v>-2.023182964324951</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0740674138069152</v>
+        <v>-0.0936150997877121</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4193589985370636</v>
+        <v>-0.3341432809829712</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0155770638957619</v>
+        <v>0.096211276948452</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.7163823843002323</v>
+        <v>-1.094144725799564</v>
       </c>
       <c r="D4" t="n">
-        <v>1.020635187625885</v>
+        <v>0.1154488921165452</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.5041623711586</v>
+        <v>-2.199896037578582</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1356120854616165</v>
+        <v>-0.1012509167194366</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3391829133033752</v>
+        <v>-0.6070473194122314</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0577267669141292</v>
+        <v>0.365755558013916</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.034550857543945</v>
+        <v>-2.176979589462283</v>
       </c>
       <c r="D5" t="n">
-        <v>0.722710514068603</v>
+        <v>-0.3265879869461064</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.023182964324951</v>
+        <v>-1.990285539627077</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0936150997877121</v>
+        <v>0.027030786499381</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3341432809829712</v>
+        <v>-0.5719226002693176</v>
       </c>
       <c r="H5" t="n">
-        <v>0.096211276948452</v>
+        <v>0.294895201921463</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.094144725799564</v>
+        <v>-3.141414546966552</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1154488921165452</v>
+        <v>-0.5323349475860597</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.199896037578582</v>
+        <v>-2.878420627117159</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1012509167194366</v>
+        <v>-0.0676533281803131</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.6070473194122314</v>
+        <v>0.7681630253791809</v>
       </c>
       <c r="H6" t="n">
-        <v>0.365755558013916</v>
+        <v>0.1340849250555038</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.176979589462283</v>
+        <v>-2.882815837860107</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3265879869461064</v>
+        <v>-0.6016731262207031</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.990285539627077</v>
+        <v>-3.885647296905518</v>
       </c>
       <c r="F7" t="n">
-        <v>0.027030786499381</v>
+        <v>1.249219417572022</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.5719226002693176</v>
+        <v>2.446057081222534</v>
       </c>
       <c r="H7" t="n">
-        <v>0.294895201921463</v>
+        <v>-2.910009384155273</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-3.141414546966552</v>
+        <v>-0.8601818561553913</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5323349475860597</v>
+        <v>-1.684099733829501</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.878420627117159</v>
+        <v>-2.678740978240965</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0676533281803131</v>
+        <v>-5.024672031402588</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7681630253791809</v>
+        <v>3.37014365196228</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1340849250555038</v>
+        <v>1.169654250144958</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-2.882815837860107</v>
+        <v>-5.657242393493673</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6016731262207031</v>
+        <v>3.606464934349082</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.885647296905518</v>
+        <v>0.08138247728348924</v>
       </c>
       <c r="F9" t="n">
-        <v>1.249219417572022</v>
+        <v>-0.4809036552906036</v>
       </c>
       <c r="G9" t="n">
-        <v>2.446057081222534</v>
+        <v>-0.9014843702316284</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.910009384155273</v>
+        <v>-0.4489859640598297</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.8601818561553913</v>
+        <v>8.681338095665012</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.684099733829501</v>
+        <v>-7.609756255149873</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.678740978240965</v>
+        <v>15.81418170332913</v>
       </c>
       <c r="F10" t="n">
-        <v>-5.024672031402588</v>
+        <v>0.1214094683527946</v>
       </c>
       <c r="G10" t="n">
-        <v>3.37014365196228</v>
+        <v>-0.1204931661486625</v>
       </c>
       <c r="H10" t="n">
-        <v>1.169654250144958</v>
+        <v>-0.1059851199388504</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-5.657242393493673</v>
+        <v>-0.144448471069385</v>
       </c>
       <c r="D11" t="n">
-        <v>3.606464934349082</v>
+        <v>-5.267538833618145</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08138247728348924</v>
+        <v>6.748085594177196</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.4809036552906036</v>
+        <v>0.1154535338282585</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.9014843702316284</v>
+        <v>0.580016553401947</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.4489859640598297</v>
+        <v>0.1820378452539444</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8.681338095665012</v>
+        <v>-2.751119017601013</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.609756255149873</v>
+        <v>-0.8004006147384595</v>
       </c>
       <c r="E12" t="n">
-        <v>15.81418170332913</v>
+        <v>0.7070116698741864</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1214094683527946</v>
+        <v>-0.0803287774324417</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1204931661486625</v>
+        <v>0.523511528968811</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1059851199388504</v>
+        <v>0.0910189226269722</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.144448471069385</v>
+        <v>-0.8653369903564379</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.267538833618145</v>
+        <v>0.6911904811859146</v>
       </c>
       <c r="E13" t="n">
-        <v>6.748085594177196</v>
+        <v>0.1385533899068852</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1154535338282585</v>
+        <v>0.2764165103435516</v>
       </c>
       <c r="G13" t="n">
-        <v>0.580016553401947</v>
+        <v>-0.3255911767482757</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1820378452539444</v>
+        <v>-0.3462078869342804</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-2.751119017601013</v>
+        <v>-0.05353097915649382</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.8004006147384595</v>
+        <v>0.9274977564811712</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7070116698741864</v>
+        <v>0.07016281634568972</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0803287774324417</v>
+        <v>0.06276640295982359</v>
       </c>
       <c r="G14" t="n">
-        <v>0.523511528968811</v>
+        <v>-0.0484110713005065</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0910189226269722</v>
+        <v>-0.06322455406188961</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.8653369903564379</v>
+        <v>-0.02049140930175772</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6911904811859146</v>
+        <v>0.119993495941156</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1385533899068852</v>
+        <v>-1.037646460533149</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2764165103435516</v>
+        <v>0.1180497109889984</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.3255911767482757</v>
+        <v>0.2403754740953445</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.3462078869342804</v>
+        <v>0.1624901592731475</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.05353097915649382</v>
+        <v>-0.4113636493682893</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9274977564811712</v>
+        <v>0.586677223443993</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07016281634568972</v>
+        <v>-0.8508657932281428</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06276640295982359</v>
+        <v>0.0467311926186084</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0484110713005065</v>
+        <v>-0.0813977941870689</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.06322455406188961</v>
+        <v>0.0368046313524246</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.02049140930175772</v>
+        <v>-0.4694080352783192</v>
       </c>
       <c r="D17" t="n">
-        <v>0.119993495941156</v>
+        <v>1.210235714912413</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.037646460533149</v>
+        <v>-0.3317522853612906</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1180497109889984</v>
+        <v>-0.1041525229811668</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2403754740953445</v>
+        <v>-0.1530217379331588</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1624901592731475</v>
+        <v>-0.0762054398655891</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.4113636493682893</v>
+        <v>-0.1741046428680419</v>
       </c>
       <c r="D18" t="n">
-        <v>0.586677223443993</v>
+        <v>0.8977988541126247</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.8508657932281428</v>
+        <v>0.01361500471830607</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0467311926186084</v>
+        <v>0.0267253536731004</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0813977941870689</v>
+        <v>0.1693623960018158</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0368046313524246</v>
+        <v>0.1466076523065567</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.4694080352783192</v>
+        <v>-0.1291728973388671</v>
       </c>
       <c r="D19" t="n">
-        <v>1.210235714912413</v>
+        <v>1.006058931350709</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.3317522853612906</v>
+        <v>0.4721004664897911</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1041525229811668</v>
+        <v>0.022754730656743</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1530217379331588</v>
+        <v>0.0076358155347406</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0762054398655891</v>
+        <v>0.0436768643558025</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.1741046428680419</v>
+        <v>-0.002682542800902174</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8977988541126247</v>
+        <v>1.269368827342987</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01361500471830607</v>
+        <v>0.2094295166432854</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0267253536731004</v>
+        <v>-0.0059559359215199</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1693623960018158</v>
+        <v>-0.0832303911447525</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1466076523065567</v>
+        <v>-0.1382082551717758</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.1291728973388671</v>
+        <v>0.1471566200256338</v>
       </c>
       <c r="D21" t="n">
-        <v>1.006058931350709</v>
+        <v>1.182808732986451</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4721004664897911</v>
+        <v>0.03668105900287391</v>
       </c>
       <c r="F21" t="n">
-        <v>0.022754730656743</v>
+        <v>0.0018325957935303</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0076358155347406</v>
+        <v>0.0178678091615438</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0436768643558025</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.002682542800902174</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.269368827342987</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.2094295166432854</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.0059559359215199</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.0832303911447525</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.1382082551717758</v>
+        <v>0.0360410511493682</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-56-24/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-56-24/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.7163823843002323</v>
+        <v>-0.5779368877410893</v>
       </c>
       <c r="D2" t="n">
-        <v>1.020635187625885</v>
+        <v>1.070879459381104</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.5041623711586</v>
+        <v>0.1698004633188247</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1356120854616165</v>
+        <v>0.0106901414692401</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3391829133033752</v>
+        <v>-0.00335975876078</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0577267669141292</v>
+        <v>0.0360410511493682</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.034550857543945</v>
+        <v>-0.6250030517578123</v>
       </c>
       <c r="D3" t="n">
-        <v>0.722710514068603</v>
+        <v>1.073733139038086</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.023182964324951</v>
+        <v>0.1257202506065367</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0936150997877121</v>
+        <v>-0.007177666760981</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3341432809829712</v>
+        <v>-0.0487165041267871</v>
       </c>
       <c r="H3" t="n">
-        <v>0.096211276948452</v>
+        <v>0.0716239511966705</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.094144725799564</v>
+        <v>-0.5019012451171875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1154488921165452</v>
+        <v>1.114973473548889</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.199896037578582</v>
+        <v>0.08085805475711817</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1012509167194366</v>
+        <v>-0.0007635815418325</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.6070473194122314</v>
+        <v>-0.0448985956609249</v>
       </c>
       <c r="H4" t="n">
-        <v>0.365755558013916</v>
+        <v>0.0595593601465225</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.176979589462283</v>
+        <v>-0.5343909263610841</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3265879869461064</v>
+        <v>1.139204859733582</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.990285539627077</v>
+        <v>0.1443376690149308</v>
       </c>
       <c r="F5" t="n">
-        <v>0.027030786499381</v>
+        <v>0.09666942805051799</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.5719226002693176</v>
+        <v>0.0059559359215199</v>
       </c>
       <c r="H5" t="n">
-        <v>0.294895201921463</v>
+        <v>0.0488692186772823</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3.141414546966552</v>
+        <v>-0.5579452037811278</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5323349475860597</v>
+        <v>1.112600553035736</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.878420627117159</v>
+        <v>0.2124309107661247</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0676533281803131</v>
+        <v>0.1411098688840866</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7681630253791809</v>
+        <v>0.2434297949075698</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1340849250555038</v>
+        <v>-0.0125227374956011</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.882815837860107</v>
+        <v>-0.4796955108642578</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6016731262207031</v>
+        <v>1.016827774047851</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.885647296905518</v>
+        <v>0.1028751075267787</v>
       </c>
       <c r="F7" t="n">
-        <v>1.249219417572022</v>
+        <v>-0.0161879286170005</v>
       </c>
       <c r="G7" t="n">
-        <v>2.446057081222534</v>
+        <v>0.07849618047475811</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.910009384155273</v>
+        <v>0.0746782794594764</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.8601818561553913</v>
+        <v>-0.5379581451416018</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.684099733829501</v>
+        <v>0.9855325698852542</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.678740978240965</v>
+        <v>-0.2731702357530603</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.024672031402588</v>
+        <v>0.0678060427308082</v>
       </c>
       <c r="G8" t="n">
-        <v>3.37014365196228</v>
+        <v>-0.026419922709465</v>
       </c>
       <c r="H8" t="n">
-        <v>1.169654250144958</v>
+        <v>0.0497855171561241</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-5.657242393493673</v>
+        <v>-0.6476110458374021</v>
       </c>
       <c r="D9" t="n">
-        <v>3.606464934349082</v>
+        <v>1.080279231071473</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08138247728348924</v>
+        <v>-0.8854551434516924</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4809036552906036</v>
+        <v>-0.0740674138069152</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.9014843702316284</v>
+        <v>-0.4193589985370636</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.4489859640598297</v>
+        <v>0.0155770638957619</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.681338095665012</v>
+        <v>-0.7163823843002323</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.609756255149873</v>
+        <v>1.020635187625885</v>
       </c>
       <c r="E10" t="n">
-        <v>15.81418170332913</v>
+        <v>-1.5041623711586</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1214094683527946</v>
+        <v>-0.1356120854616165</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1204931661486625</v>
+        <v>-0.3391829133033752</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1059851199388504</v>
+        <v>0.0577267669141292</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.144448471069385</v>
+        <v>-1.034550857543945</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.267538833618145</v>
+        <v>0.722710514068603</v>
       </c>
       <c r="E11" t="n">
-        <v>6.748085594177196</v>
+        <v>-2.023182964324951</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1154535338282585</v>
+        <v>-0.0936150997877121</v>
       </c>
       <c r="G11" t="n">
-        <v>0.580016553401947</v>
+        <v>-0.3341432809829712</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1820378452539444</v>
+        <v>0.096211276948452</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2.751119017601013</v>
+        <v>-1.094144725799564</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.8004006147384595</v>
+        <v>0.1154488921165452</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7070116698741864</v>
+        <v>-2.199896037578582</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0803287774324417</v>
+        <v>-0.1012509167194366</v>
       </c>
       <c r="G12" t="n">
-        <v>0.523511528968811</v>
+        <v>-0.6070473194122314</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0910189226269722</v>
+        <v>0.365755558013916</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.8653369903564379</v>
+        <v>-2.176979589462283</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6911904811859146</v>
+        <v>-0.3265879869461064</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1385533899068852</v>
+        <v>-1.990285539627077</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2764165103435516</v>
+        <v>0.027030786499381</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3255911767482757</v>
+        <v>-0.5719226002693176</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.3462078869342804</v>
+        <v>0.294895201921463</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.05353097915649382</v>
+        <v>-3.141414546966552</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9274977564811712</v>
+        <v>-0.5323349475860597</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07016281634568972</v>
+        <v>-2.878420627117159</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06276640295982359</v>
+        <v>-0.0676533281803131</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0484110713005065</v>
+        <v>0.7681630253791809</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.06322455406188961</v>
+        <v>0.1340849250555038</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.02049140930175772</v>
+        <v>-2.882815837860107</v>
       </c>
       <c r="D15" t="n">
-        <v>0.119993495941156</v>
+        <v>-0.6016731262207031</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.037646460533149</v>
+        <v>-3.885647296905518</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1180497109889984</v>
+        <v>1.249219417572022</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2403754740953445</v>
+        <v>2.446057081222534</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1624901592731475</v>
+        <v>-2.910009384155273</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.4113636493682893</v>
+        <v>-0.8601818561553913</v>
       </c>
       <c r="D16" t="n">
-        <v>0.586677223443993</v>
+        <v>-1.684099733829501</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.8508657932281428</v>
+        <v>-2.678740978240965</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0467311926186084</v>
+        <v>-5.024672031402588</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0813977941870689</v>
+        <v>3.37014365196228</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0368046313524246</v>
+        <v>1.169654250144958</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.4694080352783192</v>
+        <v>-5.657242393493673</v>
       </c>
       <c r="D17" t="n">
-        <v>1.210235714912413</v>
+        <v>3.606464934349082</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.3317522853612906</v>
+        <v>0.08138247728348924</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1041525229811668</v>
+        <v>-0.4809036552906036</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1530217379331588</v>
+        <v>-0.9014843702316284</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.0762054398655891</v>
+        <v>-0.4489859640598297</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.1741046428680419</v>
+        <v>8.681338095665012</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8977988541126247</v>
+        <v>-7.609756255149873</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01361500471830607</v>
+        <v>15.81418170332913</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0267253536731004</v>
+        <v>0.1214094683527946</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1693623960018158</v>
+        <v>-0.1204931661486625</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1466076523065567</v>
+        <v>-0.1059851199388504</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.1291728973388671</v>
+        <v>-0.144448471069385</v>
       </c>
       <c r="D19" t="n">
-        <v>1.006058931350709</v>
+        <v>-5.267538833618145</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4721004664897911</v>
+        <v>6.748085594177196</v>
       </c>
       <c r="F19" t="n">
-        <v>0.022754730656743</v>
+        <v>0.1154535338282585</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0076358155347406</v>
+        <v>0.580016553401947</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0436768643558025</v>
+        <v>0.1820378452539444</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.002682542800902174</v>
+        <v>-2.751119017601013</v>
       </c>
       <c r="D20" t="n">
-        <v>1.269368827342987</v>
+        <v>-0.8004006147384595</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2094295166432854</v>
+        <v>0.7070116698741864</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0059559359215199</v>
+        <v>-0.0803287774324417</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0832303911447525</v>
+        <v>0.523511528968811</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.1382082551717758</v>
+        <v>0.0910189226269722</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-0.8653369903564379</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6911904811859146</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.1385533899068852</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2764165103435516</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.3255911767482757</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.3462078869342804</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.05353097915649382</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9274977564811712</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.07016281634568972</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.06276640295982359</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.0484110713005065</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.06322455406188961</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.02049140930175772</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.119993495941156</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.037646460533149</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1180497109889984</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.2403754740953445</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1624901592731475</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.4113636493682893</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.586677223443993</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.8508657932281428</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0467311926186084</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.0813977941870689</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0368046313524246</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.4694080352783192</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.210235714912413</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.3317522853612906</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.1041525229811668</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.1530217379331588</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.0762054398655891</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.1741046428680419</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8977988541126247</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.01361500471830607</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0267253536731004</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1693623960018158</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1466076523065567</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.1291728973388671</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.006058931350709</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4721004664897911</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.022754730656743</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0076358155347406</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0436768643558025</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.002682542800902174</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.269368827342987</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.2094295166432854</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0059559359215199</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.0832303911447525</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.1382082551717758</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>0.1471566200256338</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D29" t="n">
         <v>1.182808732986451</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E29" t="n">
         <v>0.03668105900287391</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F29" t="n">
         <v>0.0018325957935303</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G29" t="n">
         <v>0.0178678091615438</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H29" t="n">
         <v>0.0360410511493682</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.00381779670715305</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.210070580244063</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.2140652965754264</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.0224492978304624</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0058032199740409</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0675006061792373</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.03790302276611289</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.083934617042542</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.04758519232273038</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.009010262787342</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.0429132841527462</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.06276640295982359</v>
       </c>
     </row>
   </sheetData>
